--- a/data/trans_camb/P48_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>0,25</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,81</t>
+          <t>0,0; 12,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,81</t>
+          <t>0,0; 10,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 7,85</t>
+          <t>0,0; 7,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,66</t>
+          <t>-4,77; 7,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 4,12</t>
+          <t>-6,1; 5,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,16</t>
+          <t>-6,22; 4,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,12</t>
+          <t>-3,36; 16,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,48</t>
+          <t>-2,56; 3,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 4,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 4,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 11,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>-44,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,22%</t>
+          <t>143,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>190,25%</t>
         </is>
       </c>
     </row>
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 342,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,59; 154,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 164,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 291,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,81; 168,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 172,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-9,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,76</t>
+          <t>-6,96; 12,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -0,03</t>
+          <t>-16,75; -0,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -0,2</t>
+          <t>-17,04; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 5,24</t>
+          <t>-11,0; 7,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,84; -2,62</t>
+          <t>-9,68; 7,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,39; -3,3</t>
+          <t>-17,48; -4,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,17</t>
+          <t>-17,41; -3,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -3,5</t>
+          <t>-9,56; 7,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -3,97</t>
+          <t>-5,84; 7,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; -4,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; -4,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 4,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,8%</t>
+          <t>-48,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-42,99%</t>
+          <t>-49,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,3%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,4%</t>
+          <t>-56,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>-58,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,29%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-46,19%</t>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-52,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-54,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 60,05</t>
+          <t>-32,33; 95,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 3,03</t>
+          <t>-73,4; 3,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,24; 1,02</t>
+          <t>-74,11; 1,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 33,59</t>
+          <t>-48,7; 57,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; -14,59</t>
+          <t>-44,08; 48,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -19,44</t>
+          <t>-75,53; -25,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 27,33</t>
+          <t>-77,83; -26,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,56; -22,21</t>
+          <t>-42,93; 51,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,73; -24,7</t>
+          <t>-27,61; 48,21</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-71,69; -26,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-73,24; -31,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,73; 29,76</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 2,81</t>
+          <t>-18,99; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 12,93</t>
+          <t>-0,89; 18,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 12,66</t>
+          <t>-1,94; 18,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 2,75</t>
+          <t>-8,27; 13,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 5,81</t>
+          <t>-16,73; 5,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 5,58</t>
+          <t>-11,1; 8,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 0,26</t>
+          <t>-10,94; 8,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 6,87</t>
+          <t>-6,6; 13,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,92</t>
+          <t>-13,84; 1,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 10,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 11,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 11,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-7,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 3,35</t>
+          <t>-22,26; 9,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 16,68</t>
+          <t>-0,8; 25,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 16,28</t>
+          <t>-2,1; 24,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 3,49</t>
+          <t>-9,65; 17,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 7,97</t>
+          <t>-21,81; 7,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 7,8</t>
+          <t>-14,72; 11,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 0,19</t>
+          <t>-14,23; 12,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,02</t>
+          <t>-8,44; 19,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 9,26</t>
+          <t>-17,61; 2,59</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 15,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 16,01</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 15,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -1,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 14,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -4,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 1,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -4,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,98</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 7,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; 6,96</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,17; 5,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 5,92</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 3,01</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 0,84</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; -0,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 4,28</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 2,92</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 2,21</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 0,29</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 2,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-10,24%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-15,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-17,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,5%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-12,95%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-25,39; 19,91</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-21,54; 19,82</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,15; 14,11</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; 16,22</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 7,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-30,26; 2,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,16; -1,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 12,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 8,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 6,22</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,17; 0,79</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-20,4; 8,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
